--- a/biology/Histoire de la zoologie et de la botanique/Takashi_Shirōzu/Takashi_Shirōzu.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Takashi_Shirōzu/Takashi_Shirōzu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Takashi_Shir%C5%8Dzu</t>
+          <t>Takashi_Shirōzu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Takashi Shirōzu (白水 隆, Shirōzu Takashi?), né le 14 septembre 1917 à Fukuoka – décédé le 2 avril 2004, est un entomologiste japonais spécialiste des Lépidoptères.
 Il est l'auteur de Butterflies of Formose in Colour, chez Hoikusha (1960), Early Stages of Japanese Butterflies in Colour, chez Hoikusha (avec Akira Hara, 1960) et Butterflies of Japan Illustrated in Colour, chez Hokuryu-kan (1964).
